--- a/Store_File/sample2.xlsx
+++ b/Store_File/sample2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rulengine_master\Store_File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rulengine_master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121CF5AF-70B6-48F5-96EA-37E536FFA240}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075DE724-89A2-4211-872F-EDF217A476AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sample1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ask" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -22,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Month</t>
+    <t xml:space="preserve"> Average</t>
   </si>
   <si>
     <t>May</t>
@@ -49,7 +50,7 @@
     <t>Dec</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>sh</t>
   </si>
 </sst>
 </file>
@@ -893,17 +894,17 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
       </c>
       <c r="C1">
         <v>2005</v>
@@ -1027,4 +1028,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D548805-ED04-4F7B-8C00-F7E492281CF4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>